--- a/Hardware/v1.1/BOM/V1.1.xlsx
+++ b/Hardware/v1.1/BOM/V1.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="189">
   <si>
     <t xml:space="preserve">DetonationEMS v1.1 (Aaron S. 2020)</t>
   </si>
@@ -530,6 +530,63 @@
   </si>
   <si>
     <t xml:space="preserve">1x SP721APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Terminal Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1984617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277-1721-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDC 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDC40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302-S401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED10529-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male Pins 2.54mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male Pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREC040SAAN-RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1012EC-40-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumpers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Jumper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSB-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2057-MSB-G-ND</t>
   </si>
 </sst>
 </file>
@@ -540,11 +597,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -566,6 +624,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -616,7 +681,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -629,7 +694,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -646,35 +719,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ32"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AMI1" s="3"/>
-      <c r="AMJ1" s="3"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -701,8 +773,6 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AMI2" s="3"/>
-      <c r="AMJ2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -1353,7 +1423,89 @@
         <v>169</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G38:H38"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
